--- a/src/test/java/resources/GetRequest.xlsx
+++ b/src/test/java/resources/GetRequest.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="userLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="findByStatus" sheetId="2" r:id="rId2"/>
+    <sheet name="findByStatus" sheetId="2" r:id="rId1"/>
+    <sheet name="store" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,51 +28,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
-    <t>email</t>
+    <t>API Name</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Endpoint</t>
   </si>
   <si>
-    <t>rishikesh@frugaltestingin.com</t>
+    <t>Status</t>
   </si>
   <si>
-    <t>Frugal@12345</t>
-  </si>
-  <si>
-    <t>rishikesh.com</t>
-  </si>
-  <si>
-    <t>Frugal@123</t>
-  </si>
-  <si>
-    <t>rishikesh@</t>
-  </si>
-  <si>
-    <t>rishikesh</t>
-  </si>
-  <si>
-    <t>@#$</t>
-  </si>
-  <si>
-    <t>apiName</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>expectedStatusCode</t>
+    <t>Expected Status Code</t>
   </si>
   <si>
     <t>findByStatus</t>
   </si>
   <si>
-    <t>https://petstore.swagger.io/v2/pet/findByStatus?status=</t>
+    <t>/pet/findByStatus?status=</t>
   </si>
   <si>
     <t>available</t>
@@ -82,6 +55,15 @@
   </si>
   <si>
     <t>sold</t>
+  </si>
+  <si>
+    <t>unsold</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>/store/inventory</t>
   </si>
 </sst>
 </file>
@@ -94,7 +76,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,17 +85,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +246,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,12 +437,68 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,16 +617,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,37 +632,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,78 +677,99 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,76 +1089,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="1" max="1" width="12.8888888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="4"/>
+    <col min="4" max="4" width="32.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="rishikesh@frugaltestingin.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Frugal@12345" tooltip="mailto:Frugal@12345"/>
-    <hyperlink ref="B3" r:id="rId3" display="Frugal@123"/>
-    <hyperlink ref="B4" r:id="rId3" display="Frugal@123"/>
-    <hyperlink ref="B5" r:id="rId3" display="Frugal@123"/>
-    <hyperlink ref="B6" r:id="rId3" display="Frugal@123"/>
+    <hyperlink ref="B2" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
+    <hyperlink ref="B3" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
+    <hyperlink ref="B4" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
+    <hyperlink ref="B5" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1096,81 +1186,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="28" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+      <c r="C2">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
-    <hyperlink ref="B3" r:id="rId1" display="https://petstore.swagger.io/v2/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
-    <hyperlink ref="B4" r:id="rId1" display="https://petstore.swagger.io/v2/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/test/java/resources/GetRequest.xlsx
+++ b/src/test/java/resources/GetRequest.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="12120" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="findByStatus" sheetId="2" r:id="rId1"/>
     <sheet name="store" sheetId="3" r:id="rId2"/>
+    <sheet name="pet" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>API Name</t>
   </si>
@@ -57,13 +58,13 @@
     <t>sold</t>
   </si>
   <si>
-    <t>unsold</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>/store/inventory</t>
+  </si>
+  <si>
+    <t>getPetById</t>
   </si>
 </sst>
 </file>
@@ -443,6 +444,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,21 +499,6 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,11 +759,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1089,32 +1090,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" style="4" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="4"/>
-    <col min="4" max="4" width="32.4444444444444" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="12.8888888888889" style="5" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="5"/>
+    <col min="4" max="4" width="32.4444444444444" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1125,10 +1126,10 @@
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>200</v>
       </c>
     </row>
@@ -1137,10 +1138,10 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>200</v>
       </c>
     </row>
@@ -1149,34 +1150,21 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
     <hyperlink ref="B3" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
     <hyperlink ref="B4" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
-    <hyperlink ref="B5" r:id="rId1" display="/pet/findByStatus?status=" tooltip="https://petstore.swagger.io/v2/pet/findByStatus?status="/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1200,25 +1188,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="46.8" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/GetRequest.xlsx
+++ b/src/test/java/resources/GetRequest.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12120" windowHeight="9240" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="findByStatus" sheetId="2" r:id="rId1"/>
     <sheet name="store" sheetId="3" r:id="rId2"/>
-    <sheet name="pet" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>API Name</t>
   </si>
@@ -63,9 +62,6 @@
   <si>
     <t>/store/inventory</t>
   </si>
-  <si>
-    <t>getPetById</t>
-  </si>
 </sst>
 </file>
 
@@ -444,21 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,6 +480,21 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,11 +755,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1093,29 +1089,29 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" style="5" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="5"/>
-    <col min="4" max="4" width="32.4444444444444" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="1" width="12.8888888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="4"/>
+    <col min="4" max="4" width="32.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1126,10 +1122,10 @@
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>200</v>
       </c>
     </row>
@@ -1138,10 +1134,10 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>200</v>
       </c>
     </row>
@@ -1150,10 +1146,10 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>200</v>
       </c>
     </row>
@@ -1176,7 +1172,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1188,13 +1184,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1207,47 +1203,6 @@
       </c>
       <c r="C2">
         <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="13.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="46.8" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
